--- a/docs/examples/Literature data/Cupriavidus necator  Alagesan 2017/MDVs.xlsx
+++ b/docs/examples/Literature data/Cupriavidus necator  Alagesan 2017/MDVs.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krv114/Documents/GitHub/AutoFlow-OmicsDataHandling/docs/examples/Literature data/Cupriavidus necator  Alagesan 2017/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/s143838/projects/AutoFlow-OmicsDataHandling/docs/examples/Literature data/Cupriavidus necator  Alagesan 2017/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{02F9778F-F373-954A-9866-D1C88DA9C5C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB124B45-6134-FE41-BA67-C24B9FE58E8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="1500" windowWidth="27240" windowHeight="15080"/>
+    <workbookView xWindow="1180" yWindow="1500" windowWidth="27240" windowHeight="15080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MDVs" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="633">
   <si>
     <t>Met</t>
   </si>
@@ -1448,13 +1449,484 @@
   </si>
   <si>
     <t>0.0473</t>
+  </si>
+  <si>
+    <t>Mass isotope</t>
+  </si>
+  <si>
+    <t>M0</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>M3</t>
+  </si>
+  <si>
+    <t>M4</t>
+  </si>
+  <si>
+    <t>M5</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>M6</t>
+  </si>
+  <si>
+    <t>M7</t>
+  </si>
+  <si>
+    <t>M8</t>
+  </si>
+  <si>
+    <t>M9</t>
+  </si>
+  <si>
+    <t>Amino Acid</t>
+  </si>
+  <si>
+    <t>m/z</t>
+  </si>
+  <si>
+    <t>M+1</t>
+  </si>
+  <si>
+    <t>M+2</t>
+  </si>
+  <si>
+    <t>M+3</t>
+  </si>
+  <si>
+    <t>M+4</t>
+  </si>
+  <si>
+    <t>M+5</t>
+  </si>
+  <si>
+    <t>M+6</t>
+  </si>
+  <si>
+    <t>M+7</t>
+  </si>
+  <si>
+    <t>M+8</t>
+  </si>
+  <si>
+    <t>M+9</t>
+  </si>
+  <si>
+    <t>Alanine</t>
+  </si>
+  <si>
+    <t>[M-85]</t>
+  </si>
+  <si>
+    <t>0.2128 ± 0.0341</t>
+  </si>
+  <si>
+    <t>0.4596 ± 0.0103</t>
+  </si>
+  <si>
+    <t>0.3275 ± 0.0239</t>
+  </si>
+  <si>
+    <t>[M-57]</t>
+  </si>
+  <si>
+    <t>0.1996 ± 0.0337</t>
+  </si>
+  <si>
+    <t>0.3592 ± 0.0214</t>
+  </si>
+  <si>
+    <t>0.4174 ± 0.0544</t>
+  </si>
+  <si>
+    <t>0.0238 ± 0.0124</t>
+  </si>
+  <si>
+    <t>Glycine</t>
+  </si>
+  <si>
+    <t>0.3111 ± 0.0365</t>
+  </si>
+  <si>
+    <t>0.6889 ± 0.0365</t>
+  </si>
+  <si>
+    <t>0.3019 ± 0.0322</t>
+  </si>
+  <si>
+    <t>0.6202 ± 0.0331</t>
+  </si>
+  <si>
+    <t>0.0778 ± 0.0263</t>
+  </si>
+  <si>
+    <t>Valine</t>
+  </si>
+  <si>
+    <t>0.0680 ± 0.0141</t>
+  </si>
+  <si>
+    <t>0.1824 ± 0.0264</t>
+  </si>
+  <si>
+    <t>0.3352 ± 0.0050</t>
+  </si>
+  <si>
+    <t>0.3045 ± 0.0294</t>
+  </si>
+  <si>
+    <t>0.1097 ± 0.0156</t>
+  </si>
+  <si>
+    <t>0.0652 ± 0.0132</t>
+  </si>
+  <si>
+    <t>0.1620 ± 0.0281</t>
+  </si>
+  <si>
+    <t>0.2968 ± 0.0182</t>
+  </si>
+  <si>
+    <t>0.3150 ± 0.0292</t>
+  </si>
+  <si>
+    <t>0.1526 ± 0.0299</t>
+  </si>
+  <si>
+    <t>0.0083 ± 0.0003</t>
+  </si>
+  <si>
+    <t>Leucine</t>
+  </si>
+  <si>
+    <t>0.0467 ± 0.0098</t>
+  </si>
+  <si>
+    <t>0.1282 ± 0.0227</t>
+  </si>
+  <si>
+    <t>0.2652 ± 0.0169</t>
+  </si>
+  <si>
+    <t>0.3132 ± 0.0143</t>
+  </si>
+  <si>
+    <t>0.1966 ± 0.0253</t>
+  </si>
+  <si>
+    <t>0.0501 ± 0.0093</t>
+  </si>
+  <si>
+    <t>Isoleucine</t>
+  </si>
+  <si>
+    <t>0.0630 ± 0.0123</t>
+  </si>
+  <si>
+    <t>0.1669 ± 0.0247</t>
+  </si>
+  <si>
+    <t>0.3057 ± 0.0141</t>
+  </si>
+  <si>
+    <t>0.3023 ± 0.0226</t>
+  </si>
+  <si>
+    <t>0.1426 ± 0.0239</t>
+  </si>
+  <si>
+    <t>0.0194 ± 0.0052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methionine </t>
+  </si>
+  <si>
+    <t>0.1252 ± 0.0184</t>
+  </si>
+  <si>
+    <t>0.2987 ± 0.0191</t>
+  </si>
+  <si>
+    <t>0.3709 ± 0.0131</t>
+  </si>
+  <si>
+    <t>0.1813 ± 0.0240</t>
+  </si>
+  <si>
+    <t>0.0238 ± 0.0059</t>
+  </si>
+  <si>
+    <t>0.1144 ± 0.0203</t>
+  </si>
+  <si>
+    <t>0.2522 ± 0.0259</t>
+  </si>
+  <si>
+    <t>0.3458 ± 0.0147</t>
+  </si>
+  <si>
+    <t>0.2137 ± 0.0306</t>
+  </si>
+  <si>
+    <t>0.0634 ± 0.0147</t>
+  </si>
+  <si>
+    <t>0.0105 ± 0.0009</t>
+  </si>
+  <si>
+    <t>Serine</t>
+  </si>
+  <si>
+    <t>0.2083 ± 0.0329</t>
+  </si>
+  <si>
+    <t>0.4664 ± 0.0091</t>
+  </si>
+  <si>
+    <t>0.3252 ± 0.0249</t>
+  </si>
+  <si>
+    <t>0.2044 ± 0.0301</t>
+  </si>
+  <si>
+    <t>0.3962 ± 0.0085</t>
+  </si>
+  <si>
+    <t>0.3813 ± 0.0359</t>
+  </si>
+  <si>
+    <t>0.0180 ± 0.0016</t>
+  </si>
+  <si>
+    <t>Threonine</t>
+  </si>
+  <si>
+    <t>0.1956 ± 0.0318</t>
+  </si>
+  <si>
+    <t>0.3937 ± 0.0144</t>
+  </si>
+  <si>
+    <t>0.3530 ± 0.0287</t>
+  </si>
+  <si>
+    <t>0.0576 ± 0.0137</t>
+  </si>
+  <si>
+    <t>0.1695 ± 0.0243</t>
+  </si>
+  <si>
+    <t>0.3279 ± 0.0245</t>
+  </si>
+  <si>
+    <t>0.3661 ± 0.0266</t>
+  </si>
+  <si>
+    <t>0.1113 ± 0.0236</t>
+  </si>
+  <si>
+    <t>0.0250 ± 0.0009</t>
+  </si>
+  <si>
+    <t>Phenylalanine</t>
+  </si>
+  <si>
+    <t>0.2943 ± 0.0338</t>
+  </si>
+  <si>
+    <t>0.6091 ± 0.0236</t>
+  </si>
+  <si>
+    <t>0.0965 ± 0.0242</t>
+  </si>
+  <si>
+    <t>0.0279 ± 0.0061</t>
+  </si>
+  <si>
+    <t>0.0491 ± 0.0130</t>
+  </si>
+  <si>
+    <t>0.1184 ± 0.0245</t>
+  </si>
+  <si>
+    <t>0.2083 ± 0.0237</t>
+  </si>
+  <si>
+    <t>0.2584 ± 0.0085</t>
+  </si>
+  <si>
+    <t>0.2121 ± 0.0303</t>
+  </si>
+  <si>
+    <t>0.1038 ± 0.0242</t>
+  </si>
+  <si>
+    <t>0.0213 ± 0.0066</t>
+  </si>
+  <si>
+    <t>0.0004 ± 0</t>
+  </si>
+  <si>
+    <t>0.0268 ± 0.0062</t>
+  </si>
+  <si>
+    <t>0.0480 ± 0.0130</t>
+  </si>
+  <si>
+    <t>0.1133 ± 0.0233</t>
+  </si>
+  <si>
+    <t>0.1965 ± 0.0244</t>
+  </si>
+  <si>
+    <t>0.2459 ± 0.0120</t>
+  </si>
+  <si>
+    <t>0.2168 ± 0.0282</t>
+  </si>
+  <si>
+    <t>0.1202 ± 0.0307</t>
+  </si>
+  <si>
+    <t>0.0307 ± 0.0099</t>
+  </si>
+  <si>
+    <t>0.0015 ± 0.0002</t>
+  </si>
+  <si>
+    <t>0.0002 ± 0</t>
+  </si>
+  <si>
+    <t>Aspartic acid</t>
+  </si>
+  <si>
+    <t>0.3550 ± 0.0410</t>
+  </si>
+  <si>
+    <t>0.5093 ± 0.0131</t>
+  </si>
+  <si>
+    <t>0.1357 ± 0.0307</t>
+  </si>
+  <si>
+    <t>0.1958 ± 0.0287</t>
+  </si>
+  <si>
+    <t>0.3921 ± 0.0086</t>
+  </si>
+  <si>
+    <t>0.3582 ± 0.0218</t>
+  </si>
+  <si>
+    <t>0.0539 ± 0.0185</t>
+  </si>
+  <si>
+    <t>0.1767 ± 0.0303</t>
+  </si>
+  <si>
+    <t>0.3209 ± 0.0211</t>
+  </si>
+  <si>
+    <t>0.3703 ± 0.0257</t>
+  </si>
+  <si>
+    <t>0.1034 ± 0.0311</t>
+  </si>
+  <si>
+    <t>0.0286 ± 0.0075</t>
+  </si>
+  <si>
+    <t>Glutamic acid</t>
+  </si>
+  <si>
+    <t>0.0769 ± 0.0149</t>
+  </si>
+  <si>
+    <t>0.2009 ± 0.0203</t>
+  </si>
+  <si>
+    <t>0.3411 ± 0.0046</t>
+  </si>
+  <si>
+    <t>0.2860 ± 0.0248</t>
+  </si>
+  <si>
+    <t>0.0950 ± 0.0112</t>
+  </si>
+  <si>
+    <t>0.0644 ± 0.0204</t>
+  </si>
+  <si>
+    <t>0.1618 ± 0.0302</t>
+  </si>
+  <si>
+    <t>0.3047 ± 0.0222</t>
+  </si>
+  <si>
+    <t>0.3044 ± 0.0255</t>
+  </si>
+  <si>
+    <t>0.1451 ± 0.0376</t>
+  </si>
+  <si>
+    <t>0.0196 ± 0.0011</t>
+  </si>
+  <si>
+    <t>Histidine</t>
+  </si>
+  <si>
+    <t>0.0797 ± 0.0183</t>
+  </si>
+  <si>
+    <t>0.2241 ± 0.0347</t>
+  </si>
+  <si>
+    <t>0.3013 ± 0.0174</t>
+  </si>
+  <si>
+    <t>0.2613 ± 0.0420</t>
+  </si>
+  <si>
+    <t>0.1017 ± 0.0200</t>
+  </si>
+  <si>
+    <t>0.0319 ± 0.0087</t>
+  </si>
+  <si>
+    <t>0.0634 ± 0.0149</t>
+  </si>
+  <si>
+    <t>0.1595 ± 0.0277</t>
+  </si>
+  <si>
+    <t>0.2636 ± 0.0223</t>
+  </si>
+  <si>
+    <t>0.2882 ± 0.0203</t>
+  </si>
+  <si>
+    <t>0.1752 ± 0.0333</t>
+  </si>
+  <si>
+    <t>0.0473 ± 0.0118</t>
+  </si>
+  <si>
+    <t>0.0027 ± 0.0032</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1594,6 +2066,20 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1777,7 +2263,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1903,6 +2389,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1948,11 +2475,33 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2308,19 +2857,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H116"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H70" sqref="H70"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:XFD42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2328,3012 +2879,4370 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="I13" s="1" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="H14" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="I14" s="1" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="H15" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="I15" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="H16" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="I16" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="2">
-        <v>0</v>
-      </c>
-      <c r="D17" s="1" t="s">
+      <c r="C17" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="H17" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="I17" s="1" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="I18" s="1" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="H19" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="I19" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="F20" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="H20" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="I20" s="1" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="F21" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="H21" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="I21" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="F22" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="G22" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="H22" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="I22" s="1" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="G23" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="H23" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="I23" s="1" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="F24" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="G24" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="H24" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="I24" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="F25" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="G25" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="H25" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="I25" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="F26" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="G26" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="H26" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="I26" s="1" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="F27" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="G27" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="H27" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="I27" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="F28" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="G28" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="H28" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="I28" s="1" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="F29" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="G29" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="H29" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="I29" s="1" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="1">
-        <v>0</v>
-      </c>
-      <c r="D30" s="1" t="s">
+      <c r="C30" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="F30" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="G30" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="H30" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="I30" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="F31" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="G31" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="H31" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="I31" s="1" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="F32" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="G32" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="H32" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="I32" s="1" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="F33" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="G33" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="H33" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="I33" s="1" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="F34" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="G34" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="H34" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="I34" s="1" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C35" s="1">
-        <v>0</v>
-      </c>
-      <c r="D35" s="1" t="s">
+      <c r="C35" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="F35" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="G35" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="H35" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="H35" s="1" t="s">
+      <c r="I35" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C36" s="1">
-        <v>0</v>
-      </c>
-      <c r="D36" s="1" t="s">
+      <c r="C36" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="F36" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="G36" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="H36" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="I36" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="E37" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="F37" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="G37" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G37" s="2" t="s">
+      <c r="H37" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="H37" s="1" t="s">
+      <c r="I37" s="1" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="F38" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="G38" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G38" s="2" t="s">
+      <c r="H38" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="H38" s="1" t="s">
+      <c r="I38" s="1" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="E39" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="F39" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="G39" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="H39" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="H39" s="1" t="s">
+      <c r="I39" s="1" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="E40" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="F40" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="G40" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="H40" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="H40" s="1" t="s">
+      <c r="I40" s="1" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C41" s="1">
-        <v>0</v>
-      </c>
-      <c r="D41" s="1" t="s">
+      <c r="C41" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="F41" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="G41" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G41" s="2" t="s">
+      <c r="H41" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="H41" s="1" t="s">
+      <c r="I41" s="1" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C42" s="1">
-        <v>0</v>
-      </c>
-      <c r="D42" s="1" t="s">
+      <c r="C42" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="F42" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="G42" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G42" s="2" t="s">
+      <c r="H42" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="H42" s="1" t="s">
+      <c r="I42" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="F43" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="G43" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G43" s="2" t="s">
+      <c r="H43" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="H43" s="1" t="s">
+      <c r="I43" s="1" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="E44" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="F44" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="G44" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G44" s="2" t="s">
+      <c r="H44" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="H44" s="1" t="s">
+      <c r="I44" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="E45" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="F45" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="G45" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G45" s="2" t="s">
+      <c r="H45" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="H45" s="1" t="s">
+      <c r="I45" s="1" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="E46" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="F46" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="G46" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G46" s="2" t="s">
+      <c r="H46" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="H46" s="1" t="s">
+      <c r="I46" s="1" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="E47" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="F47" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="G47" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G47" s="2" t="s">
+      <c r="H47" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="H47" s="1" t="s">
+      <c r="I47" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="E48" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="F48" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="G48" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G48" s="2" t="s">
+      <c r="H48" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="H48" s="1" t="s">
+      <c r="I48" s="1" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C49" s="1">
-        <v>0</v>
-      </c>
-      <c r="D49" s="1" t="s">
+      <c r="C49" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="F49" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="G49" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G49" s="2" t="s">
+      <c r="H49" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="H49" s="1" t="s">
+      <c r="I49" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="E50" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="F50" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="G50" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G50" s="2" t="s">
+      <c r="H50" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="H50" s="1" t="s">
+      <c r="I50" s="1" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="E51" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="F51" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="F51" s="1" t="s">
+      <c r="G51" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G51" s="2" t="s">
+      <c r="H51" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="H51" s="1" t="s">
+      <c r="I51" s="1" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="E52" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E52" s="2" t="s">
+      <c r="F52" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="G52" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="G52" s="2" t="s">
+      <c r="H52" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="H52" s="1" t="s">
+      <c r="I52" s="1" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C53" s="1">
-        <v>0</v>
-      </c>
-      <c r="D53" s="1" t="s">
+      <c r="C53" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="D53" s="1">
+        <v>0</v>
+      </c>
+      <c r="E53" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E53" s="2" t="s">
+      <c r="F53" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="F53" s="1" t="s">
+      <c r="G53" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G53" s="2" t="s">
+      <c r="H53" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="H53" s="1" t="s">
+      <c r="I53" s="1" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C54" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="E54" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="F54" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="F54" s="1" t="s">
+      <c r="G54" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G54" s="2" t="s">
+      <c r="H54" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="H54" s="1" t="s">
+      <c r="I54" s="1" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C55" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="E55" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E55" s="2" t="s">
+      <c r="F55" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="F55" s="1" t="s">
+      <c r="G55" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G55" s="2" t="s">
+      <c r="H55" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="H55" s="1" t="s">
+      <c r="I55" s="1" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C56" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="E56" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E56" s="2" t="s">
+      <c r="F56" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="F56" s="1" t="s">
+      <c r="G56" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G56" s="2" t="s">
+      <c r="H56" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="H56" s="1" t="s">
+      <c r="I56" s="1" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="E57" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E57" s="2" t="s">
+      <c r="F57" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="F57" s="1" t="s">
+      <c r="G57" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="G57" s="2" t="s">
+      <c r="H57" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="H57" s="1" t="s">
+      <c r="I57" s="1" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C58" s="1">
-        <v>0</v>
-      </c>
-      <c r="D58" s="1" t="s">
+      <c r="C58" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="D58" s="1">
+        <v>0</v>
+      </c>
+      <c r="E58" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E58" s="2" t="s">
+      <c r="F58" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="F58" s="1" t="s">
+      <c r="G58" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G58" s="2" t="s">
+      <c r="H58" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="H58" s="1" t="s">
+      <c r="I58" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="E59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E59" s="2" t="s">
+      <c r="F59" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="F59" s="1" t="s">
+      <c r="G59" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G59" s="2" t="s">
+      <c r="H59" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="H59" s="1" t="s">
+      <c r="I59" s="1" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="E60" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E60" s="2" t="s">
+      <c r="F60" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="F60" s="1" t="s">
+      <c r="G60" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="G60" s="2" t="s">
+      <c r="H60" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="H60" s="1" t="s">
+      <c r="I60" s="1" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C61" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="E61" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E61" s="2" t="s">
+      <c r="F61" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="F61" s="1" t="s">
+      <c r="G61" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G61" s="2" t="s">
+      <c r="H61" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="H61" s="1" t="s">
+      <c r="I61" s="1" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="E62" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="E62" s="2" t="s">
+      <c r="F62" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F62" s="1" t="s">
+      <c r="G62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G62" s="2" t="s">
+      <c r="H62" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="H62" s="1" t="s">
+      <c r="I62" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C63" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="E63" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="E63" s="2" t="s">
+      <c r="F63" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F63" s="1" t="s">
+      <c r="G63" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G63" s="2" t="s">
+      <c r="H63" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="H63" s="1" t="s">
+      <c r="I63" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C64" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="E64" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E64" s="2" t="s">
+      <c r="F64" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F64" s="1" t="s">
+      <c r="G64" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G64" s="2" t="s">
+      <c r="H64" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="H64" s="1" t="s">
+      <c r="I64" s="1" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C65" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="E65" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E65" s="2" t="s">
+      <c r="F65" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="F65" s="1" t="s">
+      <c r="G65" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G65" s="2" t="s">
+      <c r="H65" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="H65" s="1" t="s">
+      <c r="I65" s="1" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C66" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="D66" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="E66" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E66" s="2" t="s">
+      <c r="F66" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="F66" s="1" t="s">
+      <c r="G66" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="G66" s="2" t="s">
+      <c r="H66" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="H66" s="1" t="s">
+      <c r="I66" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C67" s="1">
-        <v>0</v>
-      </c>
-      <c r="D67" s="1" t="s">
+      <c r="C67" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="D67" s="1">
+        <v>0</v>
+      </c>
+      <c r="E67" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E67" s="2" t="s">
+      <c r="F67" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="F67" s="1" t="s">
+      <c r="G67" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="G67" s="2" t="s">
+      <c r="H67" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="H67" s="1" t="s">
+      <c r="I67" s="1" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C68" s="1">
-        <v>0</v>
-      </c>
-      <c r="D68" s="1" t="s">
+      <c r="C68" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="D68" s="1">
+        <v>0</v>
+      </c>
+      <c r="E68" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E68" s="2" t="s">
+      <c r="F68" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="F68" s="1" t="s">
+      <c r="G68" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G68" s="2" t="s">
+      <c r="H68" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="H68" s="1" t="s">
+      <c r="I68" s="1" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C69" s="1">
-        <v>0</v>
-      </c>
-      <c r="D69" s="1" t="s">
+      <c r="C69" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="D69" s="1">
+        <v>0</v>
+      </c>
+      <c r="E69" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E69" s="2" t="s">
+      <c r="F69" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="F69" s="1" t="s">
+      <c r="G69" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G69" s="2" t="s">
+      <c r="H69" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="H69" s="1" t="s">
+      <c r="I69" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C70" s="1">
-        <v>0</v>
-      </c>
-      <c r="D70" s="1" t="s">
+      <c r="C70" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="D70" s="1">
+        <v>0</v>
+      </c>
+      <c r="E70" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E70" s="2" t="s">
+      <c r="F70" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="F70" s="1" t="s">
+      <c r="G70" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G70" s="2" t="s">
+      <c r="H70" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="H70" s="1" t="s">
+      <c r="I70" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C71" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="E71" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E71" s="2" t="s">
+      <c r="F71" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="F71" s="1" t="s">
+      <c r="G71" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G71" s="2" t="s">
+      <c r="H71" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="H71" s="1" t="s">
+      <c r="I71" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="C72" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="D72" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="E72" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="E72" s="2" t="s">
+      <c r="F72" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="F72" s="1" t="s">
+      <c r="G72" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G72" s="2" t="s">
+      <c r="H72" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="H72" s="1" t="s">
+      <c r="I72" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="C73" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="D73" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="E73" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E73" s="2" t="s">
+      <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F73" s="1" t="s">
+      <c r="G73" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G73" s="2" t="s">
+      <c r="H73" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="H73" s="1" t="s">
+      <c r="I73" s="1" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C74" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="D74" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="E74" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E74" s="2" t="s">
+      <c r="F74" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="F74" s="1" t="s">
+      <c r="G74" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G74" s="2" t="s">
+      <c r="H74" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="H74" s="1" t="s">
+      <c r="I74" s="1" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C75" s="1">
-        <v>0</v>
-      </c>
-      <c r="D75" s="1" t="s">
+      <c r="C75" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="D75" s="1">
+        <v>0</v>
+      </c>
+      <c r="E75" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E75" s="2" t="s">
+      <c r="F75" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="F75" s="1" t="s">
+      <c r="G75" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G75" s="2" t="s">
+      <c r="H75" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="H75" s="1" t="s">
+      <c r="I75" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C76" s="1">
-        <v>0</v>
-      </c>
-      <c r="D76" s="1" t="s">
+      <c r="C76" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="D76" s="1">
+        <v>0</v>
+      </c>
+      <c r="E76" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E76" s="2" t="s">
+      <c r="F76" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="F76" s="1" t="s">
+      <c r="G76" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G76" s="2" t="s">
+      <c r="H76" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="H76" s="1" t="s">
+      <c r="I76" s="1" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C77" s="1">
-        <v>0</v>
-      </c>
-      <c r="D77" s="1" t="s">
+      <c r="C77" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="D77" s="1">
+        <v>0</v>
+      </c>
+      <c r="E77" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E77" s="2" t="s">
+      <c r="F77" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="F77" s="1" t="s">
+      <c r="G77" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G77" s="2" t="s">
+      <c r="H77" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="H77" s="1" t="s">
+      <c r="I77" s="1" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C78" s="1">
-        <v>0</v>
-      </c>
-      <c r="D78" s="1" t="s">
+      <c r="C78" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="D78" s="1">
+        <v>0</v>
+      </c>
+      <c r="E78" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E78" s="2" t="s">
+      <c r="F78" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="F78" s="1" t="s">
+      <c r="G78" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G78" s="2" t="s">
+      <c r="H78" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="H78" s="1" t="s">
+      <c r="I78" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C79" s="1">
-        <v>0</v>
-      </c>
-      <c r="D79" s="1" t="s">
+      <c r="C79" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="D79" s="1">
+        <v>0</v>
+      </c>
+      <c r="E79" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E79" s="2" t="s">
+      <c r="F79" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="F79" s="1" t="s">
+      <c r="G79" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G79" s="2" t="s">
+      <c r="H79" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="H79" s="1" t="s">
+      <c r="I79" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C80" s="1">
-        <v>0</v>
-      </c>
-      <c r="D80" s="1" t="s">
+      <c r="C80" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="D80" s="1">
+        <v>0</v>
+      </c>
+      <c r="E80" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E80" s="2" t="s">
+      <c r="F80" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="F80" s="1" t="s">
+      <c r="G80" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G80" s="2" t="s">
+      <c r="H80" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H80" s="1" t="s">
+      <c r="I80" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C81" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="D81" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="E81" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E81" s="2" t="s">
+      <c r="F81" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="F81" s="1" t="s">
+      <c r="G81" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="G81" s="2" t="s">
+      <c r="H81" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="H81" s="1" t="s">
+      <c r="I81" s="1" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C82" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="D82" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="E82" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E82" s="2" t="s">
+      <c r="F82" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="F82" s="1" t="s">
+      <c r="G82" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="G82" s="2" t="s">
+      <c r="H82" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="H82" s="1" t="s">
+      <c r="I82" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C83" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="D83" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="E83" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E83" s="2" t="s">
+      <c r="F83" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="F83" s="1" t="s">
+      <c r="G83" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G83" s="2" t="s">
+      <c r="H83" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="H83" s="1" t="s">
+      <c r="I83" s="1" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="C84" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="D84" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="E84" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="E84" s="2" t="s">
+      <c r="F84" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="F84" s="1" t="s">
+      <c r="G84" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G84" s="2" t="s">
+      <c r="H84" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="H84" s="1" t="s">
+      <c r="I84" s="1" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="C85" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="D85" s="1" t="s">
+      <c r="E85" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E85" s="2" t="s">
+      <c r="F85" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="F85" s="1" t="s">
+      <c r="G85" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G85" s="2" t="s">
+      <c r="H85" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="H85" s="1" t="s">
+      <c r="I85" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="C86" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="D86" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D86" s="1" t="s">
+      <c r="E86" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E86" s="2" t="s">
+      <c r="F86" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="F86" s="1" t="s">
+      <c r="G86" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G86" s="2" t="s">
+      <c r="H86" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="H86" s="1" t="s">
+      <c r="I86" s="1" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="C87" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="D87" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D87" s="1" t="s">
+      <c r="E87" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E87" s="2" t="s">
+      <c r="F87" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="F87" s="1" t="s">
+      <c r="G87" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G87" s="2" t="s">
+      <c r="H87" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="H87" s="1" t="s">
+      <c r="I87" s="1" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="C88" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="D88" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="D88" s="1" t="s">
+      <c r="E88" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="E88" s="2" t="s">
+      <c r="F88" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="F88" s="1" t="s">
+      <c r="G88" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="G88" s="2" t="s">
+      <c r="H88" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="H88" s="1" t="s">
+      <c r="I88" s="1" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="C89" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="D89" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="E89" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E89" s="2" t="s">
+      <c r="F89" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="F89" s="1" t="s">
+      <c r="G89" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G89" s="2" t="s">
+      <c r="H89" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="H89" s="1" t="s">
+      <c r="I89" s="1" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="C90" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="E90" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E90" s="2" t="s">
+      <c r="F90" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="F90" s="1" t="s">
+      <c r="G90" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="G90" s="2" t="s">
+      <c r="H90" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="H90" s="1" t="s">
+      <c r="I90" s="1" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="C91" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="D91" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D91" s="1" t="s">
+      <c r="E91" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E91" s="2" t="s">
+      <c r="F91" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="F91" s="1" t="s">
+      <c r="G91" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="G91" s="2" t="s">
+      <c r="H91" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="H91" s="1" t="s">
+      <c r="I91" s="1" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="C92" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="D92" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D92" s="1" t="s">
+      <c r="E92" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E92" s="2" t="s">
+      <c r="F92" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="F92" s="1" t="s">
+      <c r="G92" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G92" s="2" t="s">
+      <c r="H92" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="H92" s="1" t="s">
+      <c r="I92" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="C93" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="D93" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="D93" s="1" t="s">
+      <c r="E93" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="E93" s="2" t="s">
+      <c r="F93" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="F93" s="1" t="s">
+      <c r="G93" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G93" s="2" t="s">
+      <c r="H93" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="H93" s="1" t="s">
+      <c r="I93" s="1" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="C94" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="D94" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="D94" s="1" t="s">
+      <c r="E94" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="E94" s="2" t="s">
+      <c r="F94" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="F94" s="1" t="s">
+      <c r="G94" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="G94" s="2" t="s">
+      <c r="H94" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="H94" s="1" t="s">
+      <c r="I94" s="1" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="C95" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="D95" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="E95" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E95" s="2" t="s">
+      <c r="F95" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="F95" s="1" t="s">
+      <c r="G95" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="G95" s="2" t="s">
+      <c r="H95" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="H95" s="1" t="s">
+      <c r="I95" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="C96" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="D96" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D96" s="1" t="s">
+      <c r="E96" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E96" s="2" t="s">
+      <c r="F96" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="F96" s="1" t="s">
+      <c r="G96" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="G96" s="2" t="s">
+      <c r="H96" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="H96" s="1" t="s">
+      <c r="I96" s="1" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="C97" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="D97" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D97" s="1" t="s">
+      <c r="E97" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E97" s="2" t="s">
+      <c r="F97" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="F97" s="1" t="s">
+      <c r="G97" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G97" s="2" t="s">
+      <c r="H97" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="H97" s="1" t="s">
+      <c r="I97" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C98" s="2" t="s">
+      <c r="C98" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="D98" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="D98" s="1" t="s">
+      <c r="E98" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="E98" s="2" t="s">
+      <c r="F98" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F98" s="1" t="s">
+      <c r="G98" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G98" s="2" t="s">
+      <c r="H98" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="H98" s="1" t="s">
+      <c r="I98" s="1" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C99" s="2" t="s">
+      <c r="C99" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="D99" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="D99" s="1" t="s">
+      <c r="E99" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="E99" s="2" t="s">
+      <c r="F99" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="F99" s="1" t="s">
+      <c r="G99" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G99" s="2" t="s">
+      <c r="H99" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="H99" s="1" t="s">
+      <c r="I99" s="1" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C100" s="2" t="s">
+      <c r="C100" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="D100" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D100" s="1" t="s">
+      <c r="E100" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E100" s="2" t="s">
+      <c r="F100" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="F100" s="1" t="s">
+      <c r="G100" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G100" s="2" t="s">
+      <c r="H100" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="H100" s="1" t="s">
+      <c r="I100" s="1" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C101" s="2" t="s">
+      <c r="C101" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D101" s="1" t="s">
+      <c r="E101" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E101" s="2" t="s">
+      <c r="F101" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="F101" s="1" t="s">
+      <c r="G101" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G101" s="2" t="s">
+      <c r="H101" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="H101" s="1" t="s">
+      <c r="I101" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="C102" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="D102" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D102" s="1" t="s">
+      <c r="E102" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E102" s="2" t="s">
+      <c r="F102" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="F102" s="1" t="s">
+      <c r="G102" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G102" s="2" t="s">
+      <c r="H102" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="H102" s="1" t="s">
+      <c r="I102" s="1" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C103" s="1">
-        <v>0</v>
-      </c>
-      <c r="D103" s="1" t="s">
+      <c r="C103" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="D103" s="1">
+        <v>0</v>
+      </c>
+      <c r="E103" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E103" s="2" t="s">
+      <c r="F103" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="F103" s="1" t="s">
+      <c r="G103" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G103" s="2" t="s">
+      <c r="H103" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="H103" s="1" t="s">
+      <c r="I103" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C104" s="2" t="s">
+      <c r="C104" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="D104" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="D104" s="1" t="s">
+      <c r="E104" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E104" s="2" t="s">
+      <c r="F104" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F104" s="1" t="s">
+      <c r="G104" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G104" s="2" t="s">
+      <c r="H104" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="H104" s="1" t="s">
+      <c r="I104" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C105" s="2" t="s">
+      <c r="C105" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="D105" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="D105" s="1" t="s">
+      <c r="E105" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="E105" s="2" t="s">
+      <c r="F105" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="F105" s="1" t="s">
+      <c r="G105" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="G105" s="2" t="s">
+      <c r="H105" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="H105" s="1" t="s">
+      <c r="I105" s="1" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C106" s="2" t="s">
+      <c r="C106" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="D106" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="D106" s="1" t="s">
+      <c r="E106" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="E106" s="2" t="s">
+      <c r="F106" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="F106" s="1" t="s">
+      <c r="G106" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="G106" s="2" t="s">
+      <c r="H106" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="H106" s="1" t="s">
+      <c r="I106" s="1" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C107" s="2" t="s">
+      <c r="C107" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="D107" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="D107" s="1" t="s">
+      <c r="E107" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E107" s="2" t="s">
+      <c r="F107" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="F107" s="1" t="s">
+      <c r="G107" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="G107" s="2" t="s">
+      <c r="H107" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="H107" s="1" t="s">
+      <c r="I107" s="1" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C108" s="2" t="s">
+      <c r="C108" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="D108" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D108" s="1" t="s">
+      <c r="E108" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E108" s="2" t="s">
+      <c r="F108" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="F108" s="1" t="s">
+      <c r="G108" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="G108" s="2" t="s">
+      <c r="H108" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="H108" s="1" t="s">
+      <c r="I108" s="1" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C109" s="2" t="s">
+      <c r="C109" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="D109" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E109" s="2" t="s">
+      <c r="F109" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="F109" s="1" t="s">
+      <c r="G109" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G109" s="2" t="s">
+      <c r="H109" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="H109" s="1" t="s">
+      <c r="I109" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C110" s="2" t="s">
+      <c r="C110" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="D110" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="D110" s="1" t="s">
+      <c r="E110" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="E110" s="2" t="s">
+      <c r="F110" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F110" s="1" t="s">
+      <c r="G110" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G110" s="2" t="s">
+      <c r="H110" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="H110" s="1" t="s">
+      <c r="I110" s="1" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C111" s="2" t="s">
+      <c r="C111" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="D111" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="D111" s="1" t="s">
+      <c r="E111" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="E111" s="2" t="s">
+      <c r="F111" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="F111" s="1" t="s">
+      <c r="G111" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G111" s="2" t="s">
+      <c r="H111" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="H111" s="1" t="s">
+      <c r="I111" s="1" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C112" s="2" t="s">
+      <c r="C112" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="D112" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="D112" s="1" t="s">
+      <c r="E112" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="E112" s="2" t="s">
+      <c r="F112" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="F112" s="1" t="s">
+      <c r="G112" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G112" s="2" t="s">
+      <c r="H112" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="H112" s="1" t="s">
+      <c r="I112" s="1" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C113" s="2" t="s">
+      <c r="C113" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="D113" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D113" s="1" t="s">
+      <c r="E113" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E113" s="2" t="s">
+      <c r="F113" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="F113" s="1" t="s">
+      <c r="G113" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G113" s="2" t="s">
+      <c r="H113" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="H113" s="1" t="s">
+      <c r="I113" s="1" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C114" s="1">
-        <v>0</v>
-      </c>
-      <c r="D114" s="1" t="s">
+      <c r="C114" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="D114" s="1">
+        <v>0</v>
+      </c>
+      <c r="E114" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E114" s="2" t="s">
+      <c r="F114" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="F114" s="1" t="s">
+      <c r="G114" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="G114" s="2" t="s">
+      <c r="H114" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="H114" s="1" t="s">
+      <c r="I114" s="1" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C115" s="1">
-        <v>0</v>
-      </c>
-      <c r="D115" s="1" t="s">
+      <c r="C115" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="D115" s="1">
+        <v>0</v>
+      </c>
+      <c r="E115" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E115" s="2" t="s">
+      <c r="F115" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="F115" s="1" t="s">
+      <c r="G115" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G115" s="2" t="s">
+      <c r="H115" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="H115" s="1" t="s">
+      <c r="I115" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C116" s="1">
-        <v>0</v>
-      </c>
-      <c r="D116" s="1" t="s">
+      <c r="C116" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="D116" s="1">
+        <v>0</v>
+      </c>
+      <c r="E116" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E116" s="2" t="s">
+      <c r="F116" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="F116" s="1" t="s">
+      <c r="G116" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G116" s="2" t="s">
+      <c r="H116" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H116" s="1" t="s">
+      <c r="I116" s="1" t="s">
         <v>72</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF5E3E48-AB71-7642-9C21-BD3CCBED5DF8}">
+  <dimension ref="A1:M25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="C2" s="8">
+        <v>232</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>501</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>502</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="G2" s="8">
+        <v>0</v>
+      </c>
+      <c r="H2" s="8">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8">
+        <v>0</v>
+      </c>
+      <c r="J2" s="8">
+        <v>0</v>
+      </c>
+      <c r="K2" s="8">
+        <v>0</v>
+      </c>
+      <c r="L2" s="8">
+        <v>0</v>
+      </c>
+      <c r="M2" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9"/>
+      <c r="B3" s="8" t="s">
+        <v>504</v>
+      </c>
+      <c r="C3" s="8">
+        <v>260</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>505</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>506</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>507</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="H3" s="8">
+        <v>0</v>
+      </c>
+      <c r="I3" s="8">
+        <v>0</v>
+      </c>
+      <c r="J3" s="8">
+        <v>0</v>
+      </c>
+      <c r="K3" s="8">
+        <v>0</v>
+      </c>
+      <c r="L3" s="8">
+        <v>0</v>
+      </c>
+      <c r="M3" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="C4" s="8">
+        <v>218</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>510</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>511</v>
+      </c>
+      <c r="F4" s="8">
+        <v>0</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+      <c r="H4" s="8">
+        <v>0</v>
+      </c>
+      <c r="I4" s="8">
+        <v>0</v>
+      </c>
+      <c r="J4" s="8">
+        <v>0</v>
+      </c>
+      <c r="K4" s="8">
+        <v>0</v>
+      </c>
+      <c r="L4" s="8">
+        <v>0</v>
+      </c>
+      <c r="M4" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9"/>
+      <c r="B5" s="8" t="s">
+        <v>504</v>
+      </c>
+      <c r="C5" s="8">
+        <v>246</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>512</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>513</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0</v>
+      </c>
+      <c r="H5" s="8">
+        <v>0</v>
+      </c>
+      <c r="I5" s="8">
+        <v>0</v>
+      </c>
+      <c r="J5" s="8">
+        <v>0</v>
+      </c>
+      <c r="K5" s="8">
+        <v>0</v>
+      </c>
+      <c r="L5" s="8">
+        <v>0</v>
+      </c>
+      <c r="M5" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="C6" s="8">
+        <v>260</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>517</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>518</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>519</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>520</v>
+      </c>
+      <c r="I6" s="8">
+        <v>0</v>
+      </c>
+      <c r="J6" s="8">
+        <v>0</v>
+      </c>
+      <c r="K6" s="8">
+        <v>0</v>
+      </c>
+      <c r="L6" s="8">
+        <v>0</v>
+      </c>
+      <c r="M6" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9"/>
+      <c r="B7" s="8" t="s">
+        <v>504</v>
+      </c>
+      <c r="C7" s="8">
+        <v>288</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>521</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>522</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>523</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>524</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>525</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="J7" s="8">
+        <v>0</v>
+      </c>
+      <c r="K7" s="8">
+        <v>0</v>
+      </c>
+      <c r="L7" s="8">
+        <v>0</v>
+      </c>
+      <c r="M7" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="C8" s="8">
+        <v>274</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>528</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>529</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>530</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>531</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>532</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>533</v>
+      </c>
+      <c r="J8" s="8">
+        <v>0</v>
+      </c>
+      <c r="K8" s="8">
+        <v>0</v>
+      </c>
+      <c r="L8" s="8">
+        <v>0</v>
+      </c>
+      <c r="M8" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="C9" s="8">
+        <v>274</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>535</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>536</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>537</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>538</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>540</v>
+      </c>
+      <c r="J9" s="8">
+        <v>0</v>
+      </c>
+      <c r="K9" s="8">
+        <v>0</v>
+      </c>
+      <c r="L9" s="8">
+        <v>0</v>
+      </c>
+      <c r="M9" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="C10" s="8">
+        <v>292</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>542</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>543</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>544</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>545</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>546</v>
+      </c>
+      <c r="I10" s="8">
+        <v>0</v>
+      </c>
+      <c r="J10" s="8">
+        <v>0</v>
+      </c>
+      <c r="K10" s="8">
+        <v>0</v>
+      </c>
+      <c r="L10" s="8">
+        <v>0</v>
+      </c>
+      <c r="M10" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
+      <c r="B11" s="8" t="s">
+        <v>504</v>
+      </c>
+      <c r="C11" s="8">
+        <v>320</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>547</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>548</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>549</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>550</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>551</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>552</v>
+      </c>
+      <c r="J11" s="8">
+        <v>0</v>
+      </c>
+      <c r="K11" s="8">
+        <v>0</v>
+      </c>
+      <c r="L11" s="8">
+        <v>0</v>
+      </c>
+      <c r="M11" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="C12" s="8">
+        <v>362</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>554</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>555</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>556</v>
+      </c>
+      <c r="G12" s="8">
+        <v>0</v>
+      </c>
+      <c r="H12" s="8">
+        <v>0</v>
+      </c>
+      <c r="I12" s="8">
+        <v>0</v>
+      </c>
+      <c r="J12" s="8">
+        <v>0</v>
+      </c>
+      <c r="K12" s="8">
+        <v>0</v>
+      </c>
+      <c r="L12" s="8">
+        <v>0</v>
+      </c>
+      <c r="M12" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+      <c r="B13" s="8" t="s">
+        <v>504</v>
+      </c>
+      <c r="C13" s="8">
+        <v>390</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>557</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>558</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>559</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>560</v>
+      </c>
+      <c r="H13" s="8">
+        <v>0</v>
+      </c>
+      <c r="I13" s="8">
+        <v>0</v>
+      </c>
+      <c r="J13" s="8">
+        <v>0</v>
+      </c>
+      <c r="K13" s="8">
+        <v>0</v>
+      </c>
+      <c r="L13" s="8">
+        <v>0</v>
+      </c>
+      <c r="M13" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="C14" s="8">
+        <v>376</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>562</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>565</v>
+      </c>
+      <c r="H14" s="8">
+        <v>0</v>
+      </c>
+      <c r="I14" s="8">
+        <v>0</v>
+      </c>
+      <c r="J14" s="8">
+        <v>0</v>
+      </c>
+      <c r="K14" s="8">
+        <v>0</v>
+      </c>
+      <c r="L14" s="8">
+        <v>0</v>
+      </c>
+      <c r="M14" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
+      <c r="B15" s="8" t="s">
+        <v>504</v>
+      </c>
+      <c r="C15" s="8">
+        <v>404</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>568</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>569</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>570</v>
+      </c>
+      <c r="I15" s="8">
+        <v>0</v>
+      </c>
+      <c r="J15" s="8">
+        <v>0</v>
+      </c>
+      <c r="K15" s="8">
+        <v>0</v>
+      </c>
+      <c r="L15" s="8">
+        <v>0</v>
+      </c>
+      <c r="M15" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="8">
+        <v>302</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>572</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>573</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>574</v>
+      </c>
+      <c r="G16" s="8">
+        <v>0</v>
+      </c>
+      <c r="H16" s="8">
+        <v>0</v>
+      </c>
+      <c r="I16" s="8">
+        <v>0</v>
+      </c>
+      <c r="J16" s="8">
+        <v>0</v>
+      </c>
+      <c r="K16" s="8">
+        <v>0</v>
+      </c>
+      <c r="L16" s="8">
+        <v>0</v>
+      </c>
+      <c r="M16" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+      <c r="B17" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="C17" s="8">
+        <v>308</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>575</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>576</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>577</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>578</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>579</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>580</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>581</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>583</v>
+      </c>
+      <c r="M17" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+      <c r="B18" s="8" t="s">
+        <v>504</v>
+      </c>
+      <c r="C18" s="8">
+        <v>336</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>585</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>586</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>587</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>588</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>589</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>591</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>592</v>
+      </c>
+      <c r="M18" s="8" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="8">
+        <v>302</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>595</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>596</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>597</v>
+      </c>
+      <c r="G19" s="8">
+        <v>0</v>
+      </c>
+      <c r="H19" s="8">
+        <v>0</v>
+      </c>
+      <c r="I19" s="8">
+        <v>0</v>
+      </c>
+      <c r="J19" s="8">
+        <v>0</v>
+      </c>
+      <c r="K19" s="8">
+        <v>0</v>
+      </c>
+      <c r="L19" s="8">
+        <v>0</v>
+      </c>
+      <c r="M19" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="9"/>
+      <c r="B20" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="C20" s="8">
+        <v>390</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>598</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>599</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>600</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>601</v>
+      </c>
+      <c r="H20" s="8">
+        <v>0</v>
+      </c>
+      <c r="I20" s="8">
+        <v>0</v>
+      </c>
+      <c r="J20" s="8">
+        <v>0</v>
+      </c>
+      <c r="K20" s="8">
+        <v>0</v>
+      </c>
+      <c r="L20" s="8">
+        <v>0</v>
+      </c>
+      <c r="M20" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="9"/>
+      <c r="B21" s="8" t="s">
+        <v>504</v>
+      </c>
+      <c r="C21" s="8">
+        <v>418</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>602</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>603</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>604</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>605</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>606</v>
+      </c>
+      <c r="I21" s="8">
+        <v>0</v>
+      </c>
+      <c r="J21" s="8">
+        <v>0</v>
+      </c>
+      <c r="K21" s="8">
+        <v>0</v>
+      </c>
+      <c r="L21" s="8">
+        <v>0</v>
+      </c>
+      <c r="M21" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="C22" s="8">
+        <v>330</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>608</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>609</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>610</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>611</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>612</v>
+      </c>
+      <c r="I22" s="8">
+        <v>0</v>
+      </c>
+      <c r="J22" s="8">
+        <v>0</v>
+      </c>
+      <c r="K22" s="8">
+        <v>0</v>
+      </c>
+      <c r="L22" s="8">
+        <v>0</v>
+      </c>
+      <c r="M22" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="9"/>
+      <c r="B23" s="8" t="s">
+        <v>504</v>
+      </c>
+      <c r="C23" s="8">
+        <v>432</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>614</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>615</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>616</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>617</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>618</v>
+      </c>
+      <c r="J23" s="8">
+        <v>0</v>
+      </c>
+      <c r="K23" s="8">
+        <v>0</v>
+      </c>
+      <c r="L23" s="8">
+        <v>0</v>
+      </c>
+      <c r="M23" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="C24" s="8">
+        <v>338</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>620</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>622</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>623</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>624</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>625</v>
+      </c>
+      <c r="J24" s="8">
+        <v>0</v>
+      </c>
+      <c r="K24" s="8">
+        <v>0</v>
+      </c>
+      <c r="L24" s="8">
+        <v>0</v>
+      </c>
+      <c r="M24" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="9"/>
+      <c r="B25" s="8" t="s">
+        <v>504</v>
+      </c>
+      <c r="C25" s="8">
+        <v>440</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>626</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>627</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>628</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>629</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>630</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>631</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>632</v>
+      </c>
+      <c r="K25" s="8">
+        <v>0</v>
+      </c>
+      <c r="L25" s="8">
+        <v>0</v>
+      </c>
+      <c r="M25" s="8">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>